--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEC1DC-6919-4E2F-9311-EC90D9C9441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B145D-93E5-43C8-BA08-01E8E2517400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SKU</t>
   </si>
@@ -47,13 +47,22 @@
   </si>
   <si>
     <t>URL Imagen Dimensiones</t>
+  </si>
+  <si>
+    <t>https://storagecencosud.blob.core.windows.net/nathaly/producto.png</t>
+  </si>
+  <si>
+    <t>https://storagecencosud.blob.core.windows.net/nathaly/material.png</t>
+  </si>
+  <si>
+    <t>https://storagecencosud.blob.core.windows.net/nathaly/dimensiones.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,13 +84,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,9 +120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -443,68 +468,74 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.9140625" customWidth="1"/>
     <col min="6" max="6" width="18.08203125" customWidth="1"/>
-    <col min="7" max="7" width="25.08203125" customWidth="1"/>
-    <col min="8" max="8" width="19.9140625" customWidth="1"/>
+    <col min="7" max="7" width="31.4140625" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B145D-93E5-43C8-BA08-01E8E2517400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2855D-7D95-4562-A319-B10552FB5276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="urls" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>SKU</t>
   </si>
@@ -56,13 +57,40 @@
   </si>
   <si>
     <t>https://storagecencosud.blob.core.windows.net/nathaly/dimensiones.png</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Texto a insertar</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>URL Imagen Logo Krea</t>
+  </si>
+  <si>
+    <t>¡Bienvenidos a Krea! Somos tu aliado en la decoración del hogar, ofreciendo productos innovadores que combinan estilo y funcionalidad. En Krea, transformamos cada rincón de tu casa con artículos diseñados para mejorar tu día a día, desde utensilios de cocina hasta soluciones para organización y decoración. Nos apasiona crear espacios únicos que reflejen tu personalidad y estilo, garantizando siempre la mejor calidad y experiencia de compra. Con Krea, cada detalle en tu hogar cuenta.</t>
+  </si>
+  <si>
+    <t>https://storagecencosud.blob.core.windows.net/nathaly/logoKrea.png</t>
+  </si>
+  <si>
+    <t>URL Imagen Logo M+design</t>
+  </si>
+  <si>
+    <t>¡Bienvenidos a M+Design! Tu destino para el diseño contemporáneo y funcional. En M+design, fusionamos estética y practicidad, ofreciendo una cuidada selección de muebles y decoraciones que transforman espacios. Cada pieza es una celebración del diseño moderno, pensada para inspirar y facilitar tu estilo de vida. Ideal para quienes buscan un hogar que refleje su personalidad única.</t>
+  </si>
+  <si>
+    <t>https://storagecencosud.blob.core.windows.net/nathaly/logoMdesign.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,8 +120,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +159,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF074F69"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,11 +181,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -548,4 +624,90 @@
     <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="79.25" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="79.25" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CE15604B-BAD6-44FB-B549-4C3FE7DA7E25}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9CE17D95-A32E-4746-985A-CD8C1D41834A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E520372E-30C8-4CA9-9C74-FF8CF6B4FF28}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C675B44F-1511-4228-8BA5-195BEE30C8F7}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{750B180A-DF20-4DDF-B23E-50EC146B85C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2855D-7D95-4562-A319-B10552FB5276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F99163-843E-4375-9FD3-7D89B735A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Roa Vergara, Angela</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{9C6AB7EF-4D89-49B5-868D-085D6D3F7D39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arrastra hacia abajo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>SKU</t>
   </si>
   <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -84,13 +102,22 @@
   </si>
   <si>
     <t>https://storagecencosud.blob.core.windows.net/nathaly/logoMdesign.png</t>
+  </si>
+  <si>
+    <t>Descripción de la Marca</t>
+  </si>
+  <si>
+    <t>Nombre del Producto</t>
+  </si>
+  <si>
+    <t>Descripción del Producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,14 +140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
@@ -147,8 +166,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +201,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -181,26 +221,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -540,89 +582,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.9140625" customWidth="1"/>
-    <col min="6" max="6" width="18.08203125" customWidth="1"/>
-    <col min="7" max="7" width="31.4140625" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="6.9140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.08203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.9140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 D1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -636,68 +686,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.25" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="79.25" style="5"/>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="79.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="65" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F99163-843E-4375-9FD3-7D89B735A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD1010-4872-476A-8B50-FFC390D7330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>SKU</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Descripción del Producto</t>
+  </si>
+  <si>
+    <t>VideoYouTube</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -238,11 +241,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -601,10 +607,11 @@
     <col min="8" max="8" width="16.08203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="19.08203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="23.9140625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="8"/>
+    <col min="11" max="11" width="18.08203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -635,8 +642,11 @@
       <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
         <v>7</v>
@@ -648,19 +658,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD1010-4872-476A-8B50-FFC390D7330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE9A9B-9286-417B-90BE-ECC6144F3FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
-    <sheet name="urls" sheetId="2" r:id="rId2"/>
+    <sheet name="Adicionales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -26,7 +26,7 @@
     <author>Roa Vergara, Angela</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{9C6AB7EF-4D89-49B5-868D-085D6D3F7D39}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{9C6AB7EF-4D89-49B5-868D-085D6D3F7D39}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>SKU</t>
   </si>
@@ -110,17 +110,47 @@
     <t>Nombre del Producto</t>
   </si>
   <si>
-    <t>Descripción del Producto</t>
-  </si>
-  <si>
     <t>VideoYouTube</t>
+  </si>
+  <si>
+    <t>Decripción</t>
+  </si>
+  <si>
+    <t>Meta Descripción</t>
+  </si>
+  <si>
+    <t>Máx 160 Caracteres</t>
+  </si>
+  <si>
+    <t>Pega acá la URL de tu video</t>
+  </si>
+  <si>
+    <t>Agrega acá la decripción larga de tu producto</t>
+  </si>
+  <si>
+    <t>URL por defecto</t>
+  </si>
+  <si>
+    <t>Usar URL según marca</t>
+  </si>
+  <si>
+    <t>Usar descripción (Pestaña "Adicionales")</t>
+  </si>
+  <si>
+    <t>URL Imagen Logo Robust</t>
+  </si>
+  <si>
+    <t>Robust es una marca reconocida por ofrecer soluciones de mobiliario funcional y duradero, orientadas principalmente a espacios industriales, oficinas y bodegas. En productos como el gabinete mural, Robust destaca por su diseño robusto, líneas limpias y una alta capacidad de almacenamiento, combinando resistencia estructural con estética profesional. Es ideal para quienes buscan organización eficiente y materiales confiables en contextos de uso exigente.</t>
+  </si>
+  <si>
+    <t>https://media.easy.cl/is/image/EasySA/logo_robust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,8 +214,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -224,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -249,6 +293,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -589,109 +635,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.9140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="11" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="16.08203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="23.9140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="18.08203125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="8"/>
+    <col min="9" max="9" width="23.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="L2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1 D1:I1" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.25" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -749,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -758,6 +832,17 @@
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -767,6 +852,7 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{E520372E-30C8-4CA9-9C74-FF8CF6B4FF28}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{C675B44F-1511-4228-8BA5-195BEE30C8F7}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{750B180A-DF20-4DDF-B23E-50EC146B85C5}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C8D38778-6A6E-4EE7-BEB2-F14A5CFBE9C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE9A9B-9286-417B-90BE-ECC6144F3FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B134B6F-57FB-4EE2-A2C1-EA19BC41861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,156 @@
     <author>Roa Vergara, Angela</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{9C6AB7EF-4D89-49B5-868D-085D6D3F7D39}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{197C7B7D-CBD0-4185-A6AD-31C089E31A71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usar descripción (Pestaña "Adicionales")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C5EA19FB-A3E6-448B-9DAB-594DA0D8BF43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Usar URL según marca
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3B1B261D-52D2-48A5-B85E-3A7CCF15F19D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>URL por defecto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2F0336B1-0CC1-4040-AD07-8E51595649C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Agrega acá la decripción larga de tu producto
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0CED426D-F549-46AC-849F-861A3F67915E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pega acá la URL de tu video
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{B62B1F37-B90B-48FD-9504-A071FD3E7A70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nota
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Máx 160 Caracteres
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{9C6AB7EF-4D89-49B5-868D-085D6D3F7D39}">
       <text>
         <r>
           <rPr>
@@ -45,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>SKU</t>
   </si>
@@ -117,24 +266,6 @@
   </si>
   <si>
     <t>Meta Descripción</t>
-  </si>
-  <si>
-    <t>Máx 160 Caracteres</t>
-  </si>
-  <si>
-    <t>Pega acá la URL de tu video</t>
-  </si>
-  <si>
-    <t>Agrega acá la decripción larga de tu producto</t>
-  </si>
-  <si>
-    <t>URL por defecto</t>
-  </si>
-  <si>
-    <t>Usar URL según marca</t>
-  </si>
-  <si>
-    <t>Usar descripción (Pestaña "Adicionales")</t>
   </si>
   <si>
     <t>URL Imagen Logo Robust</t>
@@ -215,12 +346,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -268,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -294,7 +423,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -311,6 +439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,11 +767,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -659,81 +794,61 @@
     <col min="13" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F4" s="9"/>
@@ -746,12 +861,6 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -836,13 +945,13 @@
     </row>
     <row r="7" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B134B6F-57FB-4EE2-A2C1-EA19BC41861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E5301-959D-463B-B73B-694DFDE54AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>SKU</t>
   </si>
@@ -275,6 +275,16 @@
   </si>
   <si>
     <t>https://media.easy.cl/is/image/EasySA/logo_robust</t>
+  </si>
+  <si>
+    <t>URL Imagen Hacks &amp; Racks</t>
+  </si>
+  <si>
+    <t>Desde clósets,logias, escritorios o espacios infantiles, nuestros proyectos modulares y organizadores te permiten personalizar y aprovechar al máximo tus espacios, disfrutando de un hogar cómodo y funcional. Con Hacks &amp; Racks, simplifica tu vida diaria con soluciones modulares prácticas y creativas que mantienen tus espacios organizados, cómodos y funcionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.easy.cl/is/image/EasySA/logotipo_Hacks&amp;Racks
+ </t>
   </si>
 </sst>
 </file>
@@ -439,10 +449,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +778,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -871,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.25" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -954,6 +960,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CE15604B-BAD6-44FB-B549-4C3FE7DA7E25}"/>
@@ -962,6 +979,7 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{C675B44F-1511-4228-8BA5-195BEE30C8F7}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{750B180A-DF20-4DDF-B23E-50EC146B85C5}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C8D38778-6A6E-4EE7-BEB2-F14A5CFBE9C2}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F4D82521-3C37-44A5-BC19-35968EAECBB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\PRUEBA HTML\regional\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECA37C6-C48E-4E12-BAC4-4C996BA0971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E3532C-CC1D-4445-90B6-93E4521EEB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
     <sheet name="Adicionales" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adicionales!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adicionales!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$L$1153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>SKU</t>
   </si>
@@ -229,13 +229,7 @@
     <t>¡Bienvenidos a Krea! Somos tu aliado en la decoración del hogar, ofreciendo productos innovadores que combinan estilo y funcionalidad. En Krea, transformamos cada rincón de tu casa con artículos diseñados para mejorar tu día a día, desde utensilios de cocina hasta soluciones para organización y decoración. Nos apasiona crear espacios únicos que reflejen tu personalidad y estilo, garantizando siempre la mejor calidad y experiencia de compra. Con Krea, cada detalle en tu hogar cuenta.</t>
   </si>
   <si>
-    <t>https://storagecencosud.blob.core.windows.net/nathaly/logoKrea.png</t>
-  </si>
-  <si>
     <t>¡Bienvenidos a M+Design! Tu destino para el diseño contemporáneo y funcional. En M+design, fusionamos estética y practicidad, ofreciendo una cuidada selección de muebles y decoraciones que transforman espacios. Cada pieza es una celebración del diseño moderno, pensada para inspirar y facilitar tu estilo de vida. Ideal para quienes buscan un hogar que refleje su personalidad única.</t>
-  </si>
-  <si>
-    <t>https://storagecencosud.blob.core.windows.net/nathaly/logoMdesign.png</t>
   </si>
   <si>
     <t>Descripción de la Marca</t>
@@ -247,29 +241,16 @@
     <t>VideoYouTube</t>
   </si>
   <si>
-    <t>Decripción</t>
-  </si>
-  <si>
     <t>Meta Descripción</t>
   </si>
   <si>
     <t>Robust es una marca reconocida por ofrecer soluciones de mobiliario funcional y duradero, orientadas principalmente a espacios industriales, oficinas y bodegas. En productos como el gabinete mural, Robust destaca por su diseño robusto, líneas limpias y una alta capacidad de almacenamiento, combinando resistencia estructural con estética profesional. Es ideal para quienes buscan organización eficiente y materiales confiables en contextos de uso exigente.</t>
   </si>
   <si>
-    <t>https://media.easy.cl/is/image/EasySA/logo_robust</t>
-  </si>
-  <si>
     <t>Desde clósets,logias, escritorios o espacios infantiles, nuestros proyectos modulares y organizadores te permiten personalizar y aprovechar al máximo tus espacios, disfrutando de un hogar cómodo y funcional. Con Hacks &amp; Racks, simplifica tu vida diaria con soluciones modulares prácticas y creativas que mantienen tus espacios organizados, cómodos y funcionales.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://media.easy.cl/is/image/EasySA/logotipo_Hacks&amp;Racks
- </t>
-  </si>
-  <si>
     <t>Especializada en soluciones de fijación y construcción, reconocida por su calidad técnica y versatilidad. Su portafolio incluye anclajes, herramientas, estructuras metálicas y sistemas en acero inoxidable, bronce y galvanizado. Además, ofrece una completa línea de cadenas, cables, accesorios y complementos, orientados a aplicaciones industriales, estructurales y domésticas.</t>
-  </si>
-  <si>
-    <t>https://media.easy.cl/is/image/EasySA/logo_imporper_r</t>
   </si>
   <si>
     <t>Hacks &amp; Racks</t>
@@ -287,9 +268,6 @@
     <t>Robust</t>
   </si>
   <si>
-    <t>Nombre/Marca</t>
-  </si>
-  <si>
     <t>https://media.easy.cl/is/image/EasySA/logo_dimensiones</t>
   </si>
   <si>
@@ -297,6 +275,42 @@
   </si>
   <si>
     <t>https://media.easy.cl/is/image/EasySA/logo_producto</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_krea</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_producto.png</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_material.png</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_dimensiones.png</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_m_design</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_robust</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_Hacks&amp;Racks.png</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_imporper.png</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_cannonhome.png</t>
   </si>
 </sst>
 </file>
@@ -419,12 +433,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -437,21 +451,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,9 +809,9 @@
   </sheetPr>
   <dimension ref="A1:L1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -820,42 +831,42 @@
     <col min="13" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -866,13 +877,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -17009,22 +17020,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.25" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="5" customWidth="1"/>
     <col min="2" max="2" width="113.6640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="79.25" style="5"/>
+    <col min="3" max="3" width="79.25" style="11"/>
+    <col min="4" max="16384" width="79.25" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -17033,22 +17045,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
-        <v>30</v>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -17056,97 +17070,87 @@
         <v>5</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C9" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+  <autoFilter ref="A1:B9" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{CE15604B-BAD6-44FB-B549-4C3FE7DA7E25}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{9CE17D95-A32E-4746-985A-CD8C1D41834A}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{750B180A-DF20-4DDF-B23E-50EC146B85C5}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{C8D38778-6A6E-4EE7-BEB2-F14A5CFBE9C2}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{A16FBE4D-43DD-4DD6-9875-6D55DD51158B}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{EF212138-30CA-4789-B14E-832EF7959DF5}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{AA2D4D52-710F-4418-A959-80E1B6E32DF2}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{E1B76990-6BC2-471C-8219-53FD23184C71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
-    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
-    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17423,21 +17427,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
+    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
+    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
-    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17462,9 +17468,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
+    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785FC50-4824-4C50-B88E-29FA8A7DA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B25C4-BD8F-41F9-9B5F-1E47A9C945B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Adicionales" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adicionales!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,191 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Roa Vergara, Angela</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{197C7B7D-CBD0-4185-A6AD-31C089E31A71}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Usar descripción (Pestaña "Adicionales")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C5EA19FB-A3E6-448B-9DAB-594DA0D8BF43}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Usar URL según marca
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3B1B261D-52D2-48A5-B85E-3A7CCF15F19D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>URL por defecto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2F0336B1-0CC1-4040-AD07-8E51595649C0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Agrega acá la decripción larga de tu producto
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0CED426D-F549-46AC-849F-861A3F67915E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Pega acá la URL de tu video
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{B62B1F37-B90B-48FD-9504-A071FD3E7A70}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Nota
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Máx 160 Caracteres
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{6DDD6047-90FB-4CA9-B8DB-01566CD862F4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lista</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Selecciona el nombre del Botón</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SKU</t>
   </si>
@@ -245,18 +60,6 @@
     <t>URL Imagen Dimensiones</t>
   </si>
   <si>
-    <t>Texto a insertar</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>¡Bienvenidos a Krea! Somos tu aliado en la decoración del hogar, ofreciendo productos innovadores que combinan estilo y funcionalidad. En Krea, transformamos cada rincón de tu casa con artículos diseñados para mejorar tu día a día, desde utensilios de cocina hasta soluciones para organización y decoración. Nos apasiona crear espacios únicos que reflejen tu personalidad y estilo, garantizando siempre la mejor calidad y experiencia de compra. Con Krea, cada detalle en tu hogar cuenta.</t>
-  </si>
-  <si>
-    <t>¡Bienvenidos a M+Design! Tu destino para el diseño contemporáneo y funcional. En M+design, fusionamos estética y practicidad, ofreciendo una cuidada selección de muebles y decoraciones que transforman espacios. Cada pieza es una celebración del diseño moderno, pensada para inspirar y facilitar tu estilo de vida. Ideal para quienes buscan un hogar que refleje su personalidad única.</t>
-  </si>
-  <si>
     <t>Descripción de la Marca</t>
   </si>
   <si>
@@ -269,39 +72,9 @@
     <t>Meta Descripción</t>
   </si>
   <si>
-    <t>Robust es una marca reconocida por ofrecer soluciones de mobiliario funcional y duradero, orientadas principalmente a espacios industriales, oficinas y bodegas. En productos como el gabinete mural, Robust destaca por su diseño robusto, líneas limpias y una alta capacidad de almacenamiento, combinando resistencia estructural con estética profesional. Es ideal para quienes buscan organización eficiente y materiales confiables en contextos de uso exigente.</t>
-  </si>
-  <si>
-    <t>Desde clósets,logias, escritorios o espacios infantiles, nuestros proyectos modulares y organizadores te permiten personalizar y aprovechar al máximo tus espacios, disfrutando de un hogar cómodo y funcional. Con Hacks &amp; Racks, simplifica tu vida diaria con soluciones modulares prácticas y creativas que mantienen tus espacios organizados, cómodos y funcionales.</t>
-  </si>
-  <si>
-    <t>Especializada en soluciones de fijación y construcción, reconocida por su calidad técnica y versatilidad. Su portafolio incluye anclajes, herramientas, estructuras metálicas y sistemas en acero inoxidable, bronce y galvanizado. Además, ofrece una completa línea de cadenas, cables, accesorios y complementos, orientados a aplicaciones industriales, estructurales y domésticas.</t>
-  </si>
-  <si>
-    <t>Hacks &amp; Racks</t>
-  </si>
-  <si>
-    <t>Imporper</t>
-  </si>
-  <si>
-    <t>Krea</t>
-  </si>
-  <si>
-    <t>M+design</t>
-  </si>
-  <si>
-    <t>Robust</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_krea</t>
-  </si>
-  <si>
     <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_producto.png</t>
   </si>
   <si>
@@ -309,24 +82,6 @@
   </si>
   <si>
     <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_dimensiones.png</t>
-  </si>
-  <si>
-    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_m_design</t>
-  </si>
-  <si>
-    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_robust</t>
-  </si>
-  <si>
-    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_Hacks&amp;Racks.png</t>
-  </si>
-  <si>
-    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_imporper.png</t>
-  </si>
-  <si>
-    <t>Cannon</t>
-  </si>
-  <si>
-    <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_cannonhome.png</t>
   </si>
   <si>
     <t>Descargables</t>
@@ -351,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,38 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -449,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +183,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF074F69"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -494,56 +211,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -883,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -891,94 +595,107 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.4140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="12" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="15.4140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="24.75" style="16" customWidth="1"/>
-    <col min="13" max="13" width="22.25" style="12" customWidth="1"/>
-    <col min="14" max="14" width="53.5" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="12"/>
+    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.4140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="24.75" style="7" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="53.5" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>37</v>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="Selecciona un valor" sqref="M1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="M1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en neustros servidores internos." sqref="F1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados." sqref="G1" xr:uid="{DDD73149-9488-4F7A-AF24-2099B2DEEFB0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados" sqref="H1 I1" xr:uid="{E0C95F2F-A7F7-4055-982E-69157D928F81}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="J1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="K1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción corta del producto" prompt="Máximo 160 caracteres" sqref="L1" xr:uid="{F8596A41-6974-4826-B1EF-70DC55F8F7C0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="N1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1005,23 +722,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
+      <c r="A1" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1029,156 +746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="79.25" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="113.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="79.25" style="4"/>
-    <col min="4" max="16384" width="79.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B9" xr:uid="{FB82FBB9-DC52-4A22-9EA2-F0D8E5DF8550}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
-      <sortCondition ref="A1:A9"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
-    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
-    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -1451,26 +1019,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
+    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
+    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
-    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1487,4 +1059,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
+    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B25C4-BD8F-41F9-9B5F-1E47A9C945B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7D098-CA48-4737-814F-5A75FCF1EA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="M1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en neustros servidores internos." sqref="F1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="F1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados." sqref="G1" xr:uid="{DDD73149-9488-4F7A-AF24-2099B2DEEFB0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados" sqref="H1 I1" xr:uid="{E0C95F2F-A7F7-4055-982E-69157D928F81}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="J1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7D098-CA48-4737-814F-5A75FCF1EA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C3797F-7BC5-4F73-AE07-AABA26C6910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Instrucciones" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$N$2</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>SKU</t>
   </si>
@@ -69,12 +70,6 @@
     <t>VideoYouTube</t>
   </si>
   <si>
-    <t>Meta Descripción</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>https://cl-gm-original-files.ecomm.cencosud.com/is/image/EasySA/logo_producto.png</t>
   </si>
   <si>
@@ -90,9 +85,6 @@
     <t>Archivo Descargable (Botón)</t>
   </si>
   <si>
-    <t>Manual de uso URL</t>
-  </si>
-  <si>
     <t>📎 Descargar PDF de Garantía</t>
   </si>
   <si>
@@ -100,15 +92,920 @@
   </si>
   <si>
     <t>📥 Manual de uso</t>
+  </si>
+  <si>
+    <t>Descripción larga</t>
+  </si>
+  <si>
+    <t>Descripción corta</t>
+  </si>
+  <si>
+    <t>Manual de uso — Creador de Descripciones</t>
+  </si>
+  <si>
+    <t>1) ¿Qué hace la herramienta?</t>
+  </si>
+  <si>
+    <t>2) Flujo paso a paso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lee un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con tus productos y genera:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exportación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la descripción larga en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lista para Excel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Completa el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con tus productos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Pulsa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>👁️ Visualizar Tablas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para revisar las fichas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Pulsa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⬇️ Exportar HTML a Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para generar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>descripciones_largas_formato_html.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Usa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🧹 Limpiar Todo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> si necesitas reiniciar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción corta / Meta descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> está vacía, se coloca un CTA genérico. Para controlarlo, completa ese campo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sube el Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con el selector.</t>
+    </r>
+  </si>
+  <si>
+    <t>3) Reglas de formato de contenido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 📄 Descargar Plantilla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (opcional).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Descripción larga:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se convierte en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Imagen de Marca:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL interna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (no externas).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Video YouTube:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> acepta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL corta o larga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; se “embebe” automáticamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Botón de descarga/manual:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requiere </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seleccionar opción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>6) Exportación</t>
+  </si>
+  <si>
+    <t>El HTML exportado preserva títulos h4, negritas, imágenes, botón y video.</t>
+  </si>
+  <si>
+    <r>
+      <t>SKU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre del Producto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> desde Descripción corta (o genérico).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Descripción larga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en HTML (h4, negritas, saltos).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Botón</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (si hay texto y URL).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabla técnica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Marca (con logo), Material, Dimensiones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> embebido (si hay URL).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se genera un Excel con: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>SKU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Descripción Larga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (HTML final).</t>
+    </r>
+  </si>
+  <si>
+    <t>4) Qué ves en la visualización</t>
+  </si>
+  <si>
+    <r>
+      <t>Negritas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con asteriscos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>*palabra*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>palabra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Subtítulos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;h4&gt;&lt;b&gt;…&lt;/b&gt;&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>un salto de línea antes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sin salto extra después</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vista previa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la ficha (video, botón de manual/descarga e iconos).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Descripción corta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Máx. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>160 caracteres</t>
+    </r>
+  </si>
+  <si>
+    <t>Descripciones Marcas y urls.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t>- Descripción de la Marca (Easy):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> usa el archivo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Descripciones Marcas y urls”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SharePoint).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>7) Archivos de Apoyo Easy</t>
+  </si>
+  <si>
+    <t>Reporte Atributos &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Reporte URL Imágenes &gt;&gt;</t>
+  </si>
+  <si>
+    <t>https://metabase.ecomm.cencosud.com/question/1944-reporte-atributos-easy</t>
+  </si>
+  <si>
+    <t>https://metabase.ecomm.cencosud.com/question/1042-listado-de-fotos-ok</t>
+  </si>
+  <si>
+    <t>URL archivo descargable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,6 +1021,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,8 +1075,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +1157,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -209,44 +1181,67 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,102 +1593,97 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="46.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="24.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="53.5" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="7"/>
+    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.9140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.4140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="C2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="M1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="F1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados." sqref="G1" xr:uid="{DDD73149-9488-4F7A-AF24-2099B2DEEFB0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados" sqref="H1 I1" xr:uid="{E0C95F2F-A7F7-4055-982E-69157D928F81}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="J1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="K1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción corta del producto" prompt="Máximo 160 caracteres" sqref="L1" xr:uid="{F8596A41-6974-4826-B1EF-70DC55F8F7C0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="N1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados." sqref="L1" xr:uid="{DDD73149-9488-4F7A-AF24-2099B2DEEFB0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL por Defecto" prompt="No eliminar ni modificar esta URL, arrastra según la cantidad de skus cargados" sqref="M1:N1" xr:uid="{E0C95F2F-A7F7-4055-982E-69157D928F81}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="I1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción corta del producto" prompt="Máximo 160 caracteres" sqref="C1" xr:uid="{F8596A41-6974-4826-B1EF-70DC55F8F7C0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="K1:N1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="C1:D1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -703,7 +1693,7 @@
           <x14:formula1>
             <xm:f>Hoja1!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -712,6 +1702,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.5" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="6.5" customHeight="1">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B10" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B12" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="14.5">
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="7" customHeight="1">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B20" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B21" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B22" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B23" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B25" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B26" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="17" customFormat="1" ht="14.5">
+      <c r="B27" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="2:11" ht="7" customHeight="1">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="2:11" ht="9" customHeight="1">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="2:11" ht="6.5" customHeight="1"/>
+    <row r="45" spans="2:11">
+      <c r="B45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I24" r:id="rId1" display="https://cnco.sharepoint.com/:x:/s/CatalogoEasycl/EdJiiji6o21BgQjnk1HPqV0BNeV6udspR1WTUAGAn5ia9A?e=an5pdC" xr:uid="{10B3D824-167D-4B52-8378-83865BF1C3E2}"/>
+    <hyperlink ref="D45" r:id="rId2" xr:uid="{008AB884-5E6A-4301-B0C6-09F66B0077AE}"/>
+    <hyperlink ref="D46" r:id="rId3" xr:uid="{C535BD89-5E4B-4695-A5B7-E2DD41A0641A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3CC949-4ECF-4416-A5D7-316D69416AEA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -719,26 +2000,26 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C3797F-7BC5-4F73-AE07-AABA26C6910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE3E05-6EB6-4F35-8B56-614C50296B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
-    <sheet name="Instrucciones" sheetId="4" r:id="rId2"/>
+    <sheet name="Instrucciones &gt;" sheetId="4" r:id="rId1"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plantilla!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>SKU</t>
   </si>
@@ -715,6 +715,148 @@
   </si>
   <si>
     <r>
+      <t>Vista previa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la ficha (video, botón de manual/descarga e iconos).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Descripción corta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Máx. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>160 caracteres</t>
+    </r>
+  </si>
+  <si>
+    <t>Descripciones Marcas y urls.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t>- Descripción de la Marca (Easy):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> usa el archivo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Descripciones Marcas y urls”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SharePoint).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>7) Archivos de Apoyo Easy</t>
+  </si>
+  <si>
+    <t>Reporte Atributos &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Reporte URL Imágenes &gt;&gt;</t>
+  </si>
+  <si>
+    <t>https://metabase.ecomm.cencosud.com/question/1944-reporte-atributos-easy</t>
+  </si>
+  <si>
+    <t>https://metabase.ecomm.cencosud.com/question/1042-listado-de-fotos-ok</t>
+  </si>
+  <si>
+    <t>URL archivo descargable</t>
+  </si>
+  <si>
+    <t>(por ejemplo: Respaldo acolchado; Tapizado lavable; Patas de madera), la herramienta los convierte automáticamente en una lista &lt;ul&gt;&lt;li&gt;…&lt;/li&gt;&lt;/ul&gt; en la visualización y en la exportación.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Negritas</t>
     </r>
     <r>
@@ -769,6 +911,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Subtítulos</t>
     </r>
     <r>
@@ -863,87 +1014,21 @@
   </si>
   <si>
     <r>
-      <t>Vista previa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la ficha (video, botón de manual/descarga e iconos).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- Descripción corta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Máx. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>160 caracteres</t>
-    </r>
-  </si>
-  <si>
-    <t>Descripciones Marcas y urls.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <t>- Descripción de la Marca (Easy):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> usa el archivo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“Descripciones Marcas y urls”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (SharePoint).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Formato Lista</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -953,50 +1038,21 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>7) Archivos de Apoyo Easy</t>
-  </si>
-  <si>
-    <t>Reporte Atributos &gt;&gt;</t>
-  </si>
-  <si>
-    <t>Reporte URL Imágenes &gt;&gt;</t>
-  </si>
-  <si>
-    <t>https://metabase.ecomm.cencosud.com/question/1944-reporte-atributos-easy</t>
-  </si>
-  <si>
-    <t>https://metabase.ecomm.cencosud.com/question/1042-listado-de-fotos-ok</t>
-  </si>
-  <si>
-    <t>URL archivo descargable</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Líneas con guion al inicio (por ejemplo: - Respaldo acolchado), o una línea con ítems separados por punto y coma </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1131,6 +1187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1183,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1242,6 +1307,9 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1582,15 +1650,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.5" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="17" customFormat="1" ht="6.5" customHeight="1">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B6" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B10" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B12" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="17" customFormat="1" ht="14.5">
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="17" customFormat="1" ht="7" customHeight="1">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B20" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B21" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B22" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B23" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B24" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B27" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B28" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="17" customFormat="1" ht="14.5">
+      <c r="B29" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" ht="7" customHeight="1">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="2:14" ht="9" customHeight="1">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
+    <row r="47" spans="2:14">
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I26" r:id="rId1" display="https://cnco.sharepoint.com/:x:/s/CatalogoEasycl/EdJiiji6o21BgQjnk1HPqV0BNeV6udspR1WTUAGAn5ia9A?e=an5pdC" xr:uid="{10B3D824-167D-4B52-8378-83865BF1C3E2}"/>
+    <hyperlink ref="D47" r:id="rId2" xr:uid="{008AB884-5E6A-4301-B0C6-09F66B0077AE}"/>
+    <hyperlink ref="D48" r:id="rId3" xr:uid="{C535BD89-5E4B-4695-A5B7-E2DD41A0641A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -1599,7 +1989,7 @@
     <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.9140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.4140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
@@ -1644,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>4</v>
@@ -1698,297 +2088,6 @@
       </x14:dataValidations>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="26.5" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="6.5" customHeight="1">
-      <c r="B5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B10" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B11" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B12" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B13" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B14" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" ht="14.5">
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="7" customHeight="1">
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B17" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B20" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B21" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B22" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B23" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B25" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B26" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="17" customFormat="1" ht="14.5">
-      <c r="B27" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="2:11" ht="7" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="2:11" ht="9" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="2:11" ht="6.5" customHeight="1"/>
-    <row r="45" spans="2:11">
-      <c r="B45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I24" r:id="rId1" display="https://cnco.sharepoint.com/:x:/s/CatalogoEasycl/EdJiiji6o21BgQjnk1HPqV0BNeV6udspR1WTUAGAn5ia9A?e=an5pdC" xr:uid="{10B3D824-167D-4B52-8378-83865BF1C3E2}"/>
-    <hyperlink ref="D45" r:id="rId2" xr:uid="{008AB884-5E6A-4301-B0C6-09F66B0077AE}"/>
-    <hyperlink ref="D46" r:id="rId3" xr:uid="{C535BD89-5E4B-4695-A5B7-E2DD41A0641A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/plantilla_ejemplo.xlsx
+++ b/plantilla_ejemplo.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\rgional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE3E05-6EB6-4F35-8B56-614C50296B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E237FEF-6FBE-43F9-8CB1-B55F6C770814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instrucciones &gt;" sheetId="4" r:id="rId1"/>
-    <sheet name="Plantilla" sheetId="1" r:id="rId2"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Instrucciones &gt;" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plantilla!$A$1:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1055,6 +1055,13 @@
   <fonts count="20">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1102,12 +1109,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1246,52 +1247,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1305,11 +1303,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1650,354 +1656,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
-  <dimension ref="A1:N48"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="26.5" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" ht="6.5" customHeight="1">
-      <c r="B5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B10" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B11" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B12" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B13" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B14" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="17" customFormat="1" ht="14.5">
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="17" customFormat="1" ht="7" customHeight="1">
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B17" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B20" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B21" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B22" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B23" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B24" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B27" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B28" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" s="17" customFormat="1" ht="14.5">
-      <c r="B29" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="2:14" ht="7" customHeight="1">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-    </row>
-    <row r="41" spans="2:14" ht="9" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-    </row>
-    <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
-    <row r="47" spans="2:14">
-      <c r="B47" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I26" r:id="rId1" display="https://cnco.sharepoint.com/:x:/s/CatalogoEasycl/EdJiiji6o21BgQjnk1HPqV0BNeV6udspR1WTUAGAn5ia9A?e=an5pdC" xr:uid="{10B3D824-167D-4B52-8378-83865BF1C3E2}"/>
-    <hyperlink ref="D47" r:id="rId2" xr:uid="{008AB884-5E6A-4301-B0C6-09F66B0077AE}"/>
-    <hyperlink ref="D48" r:id="rId3" xr:uid="{C535BD89-5E4B-4695-A5B7-E2DD41A0641A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.9140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.4140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.08203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="55.25" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" style="3" customWidth="1"/>
     <col min="15" max="16384" width="10.6640625" style="3"/>
   </cols>
@@ -2046,12 +1730,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15.5">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +1752,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
@@ -2091,6 +1779,328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.5" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="16" customFormat="1" ht="6.5" customHeight="1">
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B10" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B14" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="16" customFormat="1" ht="14.5">
+      <c r="B15" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="16" customFormat="1" ht="7" customHeight="1">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B20" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B21" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B23" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B24" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B25" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B27" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B28" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="16" customFormat="1" ht="14.5">
+      <c r="B29" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="2:14" ht="7" customHeight="1">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="2:14" ht="9" customHeight="1">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
+    <row r="47" spans="2:14">
+      <c r="B47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I26" r:id="rId1" display="https://cnco.sharepoint.com/:x:/s/CatalogoEasycl/EdJiiji6o21BgQjnk1HPqV0BNeV6udspR1WTUAGAn5ia9A?e=an5pdC" xr:uid="{10B3D824-167D-4B52-8378-83865BF1C3E2}"/>
+    <hyperlink ref="D47" r:id="rId2" xr:uid="{008AB884-5E6A-4301-B0C6-09F66B0077AE}"/>
+    <hyperlink ref="D48" r:id="rId3" xr:uid="{C535BD89-5E4B-4695-A5B7-E2DD41A0641A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3CC949-4ECF-4416-A5D7-316D69416AEA}">
   <dimension ref="A1:A4"/>
@@ -2127,6 +2137,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
+    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
+    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -2399,30 +2432,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
-    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
-    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
+    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2439,23 +2468,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
-    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>